--- a/testes.xlsx
+++ b/testes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Grupo</t>
   </si>
@@ -28,6 +28,15 @@
   </si>
   <si>
     <t>Tempo FB (ms)</t>
+  </si>
+  <si>
+    <t>(pares diferentes, mas distancia igual)</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Média </t>
   </si>
 </sst>
 </file>
@@ -375,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,6 +395,7 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -543,110 +553,339 @@
         <v>455</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>5000</v>
-      </c>
-      <c r="C14">
-        <v>62</v>
-      </c>
-      <c r="D14">
-        <v>12938</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>5000</v>
-      </c>
-      <c r="C15">
-        <v>63</v>
-      </c>
-      <c r="D15">
-        <v>12794</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>5000</v>
+      </c>
+      <c r="C16">
+        <v>62</v>
+      </c>
+      <c r="D16">
+        <v>12938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>5000</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <v>12794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="B16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B18">
+        <v>5000</v>
+      </c>
+      <c r="C18">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>13329</v>
+      </c>
+      <c r="E18" t="s">
         <v>4</v>
       </c>
-      <c r="B17">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>5000</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>12474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>5</v>
       </c>
-      <c r="B18">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B20">
+        <v>5000</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>6</v>
       </c>
-      <c r="B19">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B21">
+        <v>5000</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>7</v>
       </c>
-      <c r="B20">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B22">
+        <v>5000</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>8</v>
       </c>
-      <c r="B21">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B23">
+        <v>5000</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>9</v>
       </c>
-      <c r="B22">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B24">
+        <v>5000</v>
+      </c>
+      <c r="C24">
         <v>10</v>
       </c>
-      <c r="B23">
-        <v>5000</v>
+      <c r="D24">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>5000</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>10000</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>11730</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>10000</v>
+      </c>
+      <c r="C30">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>13478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>10000</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>11776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>12626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>10000</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>12185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>10000</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>11548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>10000</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>12076</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>10000</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>10000</v>
+      </c>
+      <c r="C37">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>13325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>10000</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>14356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/testes.xlsx
+++ b/testes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="7">
   <si>
     <t xml:space="preserve">Grupo</t>
   </si>
@@ -39,7 +39,10 @@
     <t xml:space="preserve">Média</t>
   </si>
   <si>
-    <t xml:space="preserve">Média </t>
+    <t xml:space="preserve">Desvio padrao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervalo de confiança 95%</t>
   </si>
 </sst>
 </file>
@@ -149,19 +152,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.8582995951417"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -182,7 +185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -323,104 +326,106 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C12" s="0" t="n">
+        <f aca="false">AVERAGE(C2:C11)</f>
+        <v>2.1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">AVERAGE(D2:D11)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="B16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>5000</v>
@@ -429,12 +434,12 @@
         <v>6</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>5000</v>
@@ -443,26 +448,26 @@
         <v>6</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>5000</v>
@@ -471,93 +476,81 @@
         <v>5</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>5</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>5000</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">AVERAGE(C17:C26)</f>
+        <v>5.9</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">AVERAGE(D17:D26)</f>
+        <v>333.5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="0" t="s">
+      <c r="B31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E31" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>10000</v>
@@ -566,40 +559,40 @@
         <v>11</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>10000</v>
@@ -608,26 +601,26 @@
         <v>11</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>10000</v>
@@ -636,135 +629,123 @@
         <v>11</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>5</v>
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>10000</v>
       </c>
+      <c r="C39" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1360</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <f aca="false">AVERAGE(C32:C41)</f>
+        <v>11.5</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <f aca="false">AVERAGE(D32:D41)</f>
+        <v>1533.3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="0" t="s">
+      <c r="B46" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>15000</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>15000</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>15000</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>15000</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>15000</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>3034</v>
+      <c r="E46" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>15000</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>3014</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>15000</v>
@@ -773,12 +754,12 @@
         <v>18</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>3014</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>15000</v>
@@ -787,26 +768,26 @@
         <v>18</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>2991</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>15000</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>2987</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>15000</v>
@@ -815,135 +796,123 @@
         <v>18</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>3069</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>5</v>
+      <c r="A52" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>15000</v>
       </c>
+      <c r="C52" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>3014</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>5</v>
+      <c r="A54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>2991</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>5417</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>5657</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <f aca="false">AVERAGE(C47:C56)</f>
+        <v>18.2</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <f aca="false">AVERAGE(D47:D56)</f>
+        <v>3015.5</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>5668</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>5488</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>5523</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>5448</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>5483</v>
+      <c r="E61" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>20000</v>
@@ -952,12 +921,12 @@
         <v>25</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>5613</v>
+        <v>5417</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>20000</v>
@@ -966,177 +935,165 @@
         <v>25</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>5475</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>20000</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>5716</v>
+        <v>5668</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>5</v>
+      <c r="A65" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>20000</v>
       </c>
+      <c r="C65" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>5523</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>6</v>
+      <c r="A67" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>5448</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>8398</v>
+        <v>5483</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>8690</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>8563</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>8386</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B72" s="0" t="n">
-        <v>25000</v>
+      <c r="A72" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>30</v>
+        <f aca="false">AVERAGE(C62:C71)</f>
+        <v>25.2</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>8648</v>
+        <f aca="false">AVERAGE(D62:D71)</f>
+        <v>5548.8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B73" s="0" t="n">
-        <v>25000</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>8456</v>
+      <c r="A73" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B74" s="0" t="n">
-        <v>25000</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>8391</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B75" s="0" t="n">
-        <v>25000</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>8444</v>
-      </c>
-    </row>
+      <c r="A74" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B76" s="0" t="n">
-        <v>25000</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>8509</v>
+      <c r="A76" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>25000</v>
@@ -1145,347 +1102,340 @@
         <v>30</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>8522</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>5</v>
+      <c r="A78" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>25000</v>
       </c>
+      <c r="C78" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>8690</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>8563</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="0" t="n">
-        <v>7</v>
+      <c r="A80" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>8386</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>12228</v>
+        <v>8648</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>12411</v>
+        <v>8456</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>12269</v>
+        <v>8391</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>12332</v>
+        <v>8444</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>12213</v>
+        <v>8509</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>12229</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B87" s="0" t="n">
-        <v>30000</v>
+      <c r="A87" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>39</v>
+        <f aca="false">AVERAGE(C77:C86)</f>
+        <v>30.5</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>12367</v>
+        <f aca="false">AVERAGE(D77:D86)</f>
+        <v>8500.7</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B88" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="D88" s="0" t="n">
-        <v>12368</v>
+      <c r="A88" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B89" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="D89" s="0" t="n">
-        <v>12294</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B90" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="D90" s="0" t="n">
-        <v>12246</v>
-      </c>
-    </row>
+      <c r="A89" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" s="0" t="n">
         <v>30000</v>
       </c>
+      <c r="C92" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>12228</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="0" t="n">
-        <v>8</v>
+      <c r="A93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>12411</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>17810</v>
+        <v>12269</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>16696</v>
+        <v>12332</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>16603</v>
+        <v>12213</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>16637</v>
+        <v>12229</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>17181</v>
+        <v>12367</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>16515</v>
+        <v>12368</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>16992</v>
+        <v>12294</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>17132</v>
+        <v>12246</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B102" s="0" t="n">
-        <v>35000</v>
+      <c r="A102" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>46</v>
+        <f aca="false">AVERAGE(C92:C101)</f>
+        <v>38.5</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>16812</v>
+        <f aca="false">AVERAGE(D92:D101)</f>
+        <v>12295.7</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B103" s="0" t="n">
-        <v>35000</v>
-      </c>
-      <c r="C103" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="D103" s="0" t="n">
-        <v>16598</v>
+      <c r="A103" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="0" t="n">
-        <v>35000</v>
-      </c>
-    </row>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>0</v>
@@ -1500,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,13 +1458,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>23224</v>
+        <v>17810</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,13 +1472,13 @@
         <v>2</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>21612</v>
+        <v>16696</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,13 +1486,13 @@
         <v>3</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>22563</v>
+        <v>16603</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,13 +1500,13 @@
         <v>4</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>21669</v>
+        <v>16637</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,13 +1514,13 @@
         <v>5</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>21659</v>
+        <v>17181</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,13 +1528,13 @@
         <v>6</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>22029</v>
+        <v>16515</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,13 +1542,13 @@
         <v>7</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>21616</v>
+        <v>16992</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,13 +1556,13 @@
         <v>8</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>22225</v>
+        <v>17132</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,13 +1570,13 @@
         <v>9</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>21853</v>
+        <v>16812</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,186 +1584,398 @@
         <v>10</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>51782</v>
+        <v>16598</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="0" t="n">
-        <v>40000</v>
+        <v>4</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <f aca="false">AVERAGE(C107:C116)</f>
+        <v>45.8</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <f aca="false">AVERAGE(D107:D116)</f>
+        <v>16897.6</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D119" s="0" t="s">
+      <c r="B121" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E119" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B120" s="0" t="n">
-        <v>45000</v>
-      </c>
-      <c r="C120" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="D120" s="0" t="n">
-        <v>31014</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B121" s="0" t="n">
-        <v>45000</v>
-      </c>
-      <c r="C121" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="D121" s="0" t="n">
-        <v>27762</v>
+      <c r="E121" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>29090</v>
+        <v>23224</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>27715</v>
+        <v>21612</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>28460</v>
+        <v>22563</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>27988</v>
+        <v>21669</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>29372</v>
+        <v>21659</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>27483</v>
+        <v>22029</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>27383</v>
+        <v>21616</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>22225</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>21853</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B131" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>51782</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <f aca="false">AVERAGE(C122:C131)</f>
+        <v>50.9</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <f aca="false">AVERAGE(D122:D131)</f>
+        <v>25023.2</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" s="0" t="n">
         <v>45000</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C137" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>31014</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C138" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D138" s="0" t="n">
+        <v>27762</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>29090</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>27715</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>28460</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>27988</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>29372</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>27483</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>27383</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="D146" s="0" t="n">
         <v>27257</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="0" t="n">
-        <v>45000</v>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <f aca="false">AVERAGE(C137:C146)</f>
+        <v>57.7</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <f aca="false">AVERAGE(D137:D146)</f>
+        <v>28352.4</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/testes.xlsx
+++ b/testes.xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="7">
   <si>
     <t>Grupo</t>
   </si>
@@ -30,13 +35,13 @@
     <t>Tempo FB (ms)</t>
   </si>
   <si>
-    <t>(pares diferentes, mas distancia igual)</t>
-  </si>
-  <si>
     <t>Média</t>
   </si>
   <si>
-    <t xml:space="preserve">Média </t>
+    <t>Desvio padrao</t>
+  </si>
+  <si>
+    <t>Intervalo de confiança 95%</t>
   </si>
 </sst>
 </file>
@@ -46,18 +51,18 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,6 +100,218 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$B$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desvio padrao</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$B$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>1.4491376746189437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intervalo de confiança 95%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$B$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>0.89816833185420519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2395900646091229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="193784064"/>
+        <c:axId val="193901696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="193784064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="193901696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="193901696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="193784064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,18 +601,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125"/>
+    <col min="2" max="3" width="15.5703125"/>
+    <col min="4" max="4" width="17.28515625"/>
+    <col min="5" max="5" width="3.85546875"/>
+    <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -411,6 +629,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -420,10 +641,10 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>538</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -434,10 +655,10 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>439</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -448,10 +669,10 @@
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>454</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -462,10 +683,10 @@
         <v>1000</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>439</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -476,10 +697,10 @@
         <v>1000</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>457</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -490,10 +711,10 @@
         <v>1000</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>426</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -505,10 +726,10 @@
         <v>1000</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>441</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -519,10 +740,10 @@
         <v>1000</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>447</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -533,10 +754,10 @@
         <v>1000</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>452</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -547,350 +768,1819 @@
         <v>1000</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>455</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(C2:C11)</f>
+        <v>2.1</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(D2:D11)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C13">
+        <f>STDEV(C2:C11)</f>
+        <v>1.4491376746189437</v>
+      </c>
+      <c r="D13">
+        <f>STDEV(D2:D11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f>CONFIDENCE(0.05,C13,10)</f>
+        <v>0.89816833185420519</v>
+      </c>
+      <c r="D14">
+        <f>CONFIDENCE(0.05,D13,10)</f>
+        <v>1.2395900646091229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>5000</v>
-      </c>
-      <c r="C16">
-        <v>62</v>
-      </c>
-      <c r="D16">
-        <v>12938</v>
+      <c r="E16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>5000</v>
       </c>
       <c r="C17">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>12794</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>5000</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>13329</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>5000</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>12474</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>5000</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>2973</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>5000</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>3405</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>5000</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>3276</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>5000</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>3387</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>5000</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>3841</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>5000</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>3342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>6</v>
+      <c r="A26">
+        <v>10</v>
       </c>
       <c r="B26">
         <v>5000</v>
       </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(C17:C26)</f>
+        <v>5.9</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(D17:D26)</f>
+        <v>333.5</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <f>STDEV(C17:C26)</f>
+        <v>1.8529256146249722</v>
+      </c>
+      <c r="D28">
+        <f>STDEV(D17:D26)</f>
+        <v>6.6038709187196503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <f>CONFIDENCE(0.05,C28,10)</f>
+        <v>1.148434091174434</v>
+      </c>
+      <c r="D29">
+        <f>CONFIDENCE(0.05,D28,10)</f>
+        <v>4.0930463894029989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>10000</v>
-      </c>
-      <c r="C29">
-        <v>22</v>
-      </c>
-      <c r="D29">
-        <v>11730</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>10000</v>
-      </c>
-      <c r="C30">
-        <v>21</v>
-      </c>
-      <c r="D30">
-        <v>13478</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="E31">
         <v>3</v>
-      </c>
-      <c r="B31">
-        <v>10000</v>
-      </c>
-      <c r="C31">
-        <v>29</v>
-      </c>
-      <c r="D31">
-        <v>11776</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32">
         <v>10000</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>12626</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33">
         <v>10000</v>
       </c>
       <c r="C33">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>12185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34">
         <v>10000</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>11548</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>10000</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>12076</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>10000</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D36">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>10000</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>13325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B38">
         <v>10000</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>14356</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>6</v>
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
       </c>
       <c r="B39">
         <v>10000</v>
       </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>10000</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>10000</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <f>AVERAGE(C32:C41)</f>
+        <v>11.5</v>
+      </c>
+      <c r="D42">
+        <f>AVERAGE(D32:D41)</f>
+        <v>1533.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:D43" si="0">STDEV(C32:C41)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>132.85668970736853</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <f>CONFIDENCE(0.05,C43,10)</f>
+        <v>0.43826127028829065</v>
+      </c>
+      <c r="D44">
+        <f>CONFIDENCE(0.05,D43,10)</f>
+        <v>82.343916289055571</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>15000</v>
+      </c>
+      <c r="C47">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>15000</v>
+      </c>
+      <c r="C48">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>15000</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>15000</v>
+      </c>
+      <c r="C50">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>15000</v>
+      </c>
+      <c r="C51">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>15000</v>
+      </c>
+      <c r="C52">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>15000</v>
+      </c>
+      <c r="C53">
+        <v>18</v>
+      </c>
+      <c r="D53">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>15000</v>
+      </c>
+      <c r="C54">
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>15000</v>
+      </c>
+      <c r="C55">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>15000</v>
+      </c>
+      <c r="C56">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <f>AVERAGE(C47:C56)</f>
+        <v>18.2</v>
+      </c>
+      <c r="D57">
+        <f>AVERAGE(D47:D56)</f>
+        <v>3015.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:D58" si="1">STDEV(C47:C56)</f>
+        <v>0.4216370213557839</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>24.272755646334566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <f>CONFIDENCE(0.05,C58,10)</f>
+        <v>0.26132853127200717</v>
+      </c>
+      <c r="D59">
+        <f>CONFIDENCE(0.05,D58,10)</f>
+        <v>15.044133369940658</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>20000</v>
+      </c>
+      <c r="C62">
+        <v>25</v>
+      </c>
+      <c r="D62">
+        <v>5417</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>20000</v>
+      </c>
+      <c r="C63">
+        <v>25</v>
+      </c>
+      <c r="D63">
+        <v>5657</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>20000</v>
+      </c>
+      <c r="C64">
+        <v>29</v>
+      </c>
+      <c r="D64">
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>20000</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>20000</v>
+      </c>
+      <c r="C66">
+        <v>25</v>
+      </c>
+      <c r="D66">
+        <v>5523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>20000</v>
+      </c>
+      <c r="C67">
+        <v>25</v>
+      </c>
+      <c r="D67">
+        <v>5448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>20000</v>
+      </c>
+      <c r="C68">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>20000</v>
+      </c>
+      <c r="C69">
+        <v>25</v>
+      </c>
+      <c r="D69">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>20000</v>
+      </c>
+      <c r="C70">
+        <v>25</v>
+      </c>
+      <c r="D70">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <v>20000</v>
+      </c>
+      <c r="C71">
+        <v>25</v>
+      </c>
+      <c r="D71">
+        <v>5716</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <f>AVERAGE(C62:C71)</f>
+        <v>25.2</v>
+      </c>
+      <c r="D72">
+        <f>AVERAGE(D62:D71)</f>
+        <v>5548.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73:D73" si="2">STDEV(C62:C71)</f>
+        <v>1.398411797560202</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>105.23180761221073</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <f>CONFIDENCE(0.05,C73,10)</f>
+        <v>0.86672868524390512</v>
+      </c>
+      <c r="D74">
+        <f>CONFIDENCE(0.05,D73,10)</f>
+        <v>65.222151598477538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>25000</v>
+      </c>
+      <c r="C77">
+        <v>30</v>
+      </c>
+      <c r="D77">
+        <v>8398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>25000</v>
+      </c>
+      <c r="C78">
+        <v>34</v>
+      </c>
+      <c r="D78">
+        <v>8690</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>25000</v>
+      </c>
+      <c r="C79">
+        <v>31</v>
+      </c>
+      <c r="D79">
+        <v>8563</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>25000</v>
+      </c>
+      <c r="C80">
+        <v>30</v>
+      </c>
+      <c r="D80">
+        <v>8386</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>25000</v>
+      </c>
+      <c r="C81">
+        <v>30</v>
+      </c>
+      <c r="D81">
+        <v>8648</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>25000</v>
+      </c>
+      <c r="C82">
+        <v>30</v>
+      </c>
+      <c r="D82">
+        <v>8456</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>25000</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <v>8391</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>25000</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>8444</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>9</v>
+      </c>
+      <c r="B85">
+        <v>25000</v>
+      </c>
+      <c r="C85">
+        <v>30</v>
+      </c>
+      <c r="D85">
+        <v>8509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>25000</v>
+      </c>
+      <c r="C86">
+        <v>30</v>
+      </c>
+      <c r="D86">
+        <v>8522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <f>AVERAGE(C77:C86)</f>
+        <v>30.5</v>
+      </c>
+      <c r="D87">
+        <f>AVERAGE(D77:D86)</f>
+        <v>8500.7000000000007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ref="C88:D88" si="3">STDEV(C77:C86)</f>
+        <v>1.2692955176439846</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>106.91954399869506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <f>CONFIDENCE(0.05,C88,10)</f>
+        <v>0.7867030563621884</v>
+      </c>
+      <c r="D89">
+        <f>CONFIDENCE(0.05,D88,10)</f>
+        <v>66.268202226660179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>30000</v>
+      </c>
+      <c r="C92">
+        <v>39</v>
+      </c>
+      <c r="D92">
+        <v>12228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>30000</v>
+      </c>
+      <c r="C93">
+        <v>37</v>
+      </c>
+      <c r="D93">
+        <v>12411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <v>30000</v>
+      </c>
+      <c r="C94">
+        <v>38</v>
+      </c>
+      <c r="D94">
+        <v>12269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95">
+        <v>30000</v>
+      </c>
+      <c r="C95">
+        <v>39</v>
+      </c>
+      <c r="D95">
+        <v>12332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>30000</v>
+      </c>
+      <c r="C96">
+        <v>38</v>
+      </c>
+      <c r="D96">
+        <v>12213</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>6</v>
+      </c>
+      <c r="B97">
+        <v>30000</v>
+      </c>
+      <c r="C97">
+        <v>39</v>
+      </c>
+      <c r="D97">
+        <v>12229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>30000</v>
+      </c>
+      <c r="C98">
+        <v>39</v>
+      </c>
+      <c r="D98">
+        <v>12367</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>30000</v>
+      </c>
+      <c r="C99">
+        <v>39</v>
+      </c>
+      <c r="D99">
+        <v>12368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <v>30000</v>
+      </c>
+      <c r="C100">
+        <v>38</v>
+      </c>
+      <c r="D100">
+        <v>12294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>10</v>
+      </c>
+      <c r="B101">
+        <v>30000</v>
+      </c>
+      <c r="C101">
+        <v>39</v>
+      </c>
+      <c r="D101">
+        <v>12246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <f>AVERAGE(C92:C101)</f>
+        <v>38.5</v>
+      </c>
+      <c r="D102">
+        <f>AVERAGE(D92:D101)</f>
+        <v>12295.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:D103" si="4">STDEV(C92:C101)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="4"/>
+        <v>69.90477650187988</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <f>CONFIDENCE(0.05,C103,10)</f>
+        <v>0.43826127028829065</v>
+      </c>
+      <c r="D104">
+        <f>CONFIDENCE(0.05,D103,10)</f>
+        <v>43.326633210225786</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>35000</v>
+      </c>
+      <c r="C107">
+        <v>47</v>
+      </c>
+      <c r="D107">
+        <v>17810</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>35000</v>
+      </c>
+      <c r="C108">
+        <v>46</v>
+      </c>
+      <c r="D108">
+        <v>16696</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>35000</v>
+      </c>
+      <c r="C109">
+        <v>45</v>
+      </c>
+      <c r="D109">
+        <v>16603</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>35000</v>
+      </c>
+      <c r="C110">
+        <v>45</v>
+      </c>
+      <c r="D110">
+        <v>16637</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>35000</v>
+      </c>
+      <c r="C111">
+        <v>46</v>
+      </c>
+      <c r="D111">
+        <v>17181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>35000</v>
+      </c>
+      <c r="C112">
+        <v>45</v>
+      </c>
+      <c r="D112">
+        <v>16515</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>7</v>
+      </c>
+      <c r="B113">
+        <v>35000</v>
+      </c>
+      <c r="C113">
+        <v>46</v>
+      </c>
+      <c r="D113">
+        <v>16992</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>35000</v>
+      </c>
+      <c r="C114">
+        <v>46</v>
+      </c>
+      <c r="D114">
+        <v>17132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>9</v>
+      </c>
+      <c r="B115">
+        <v>35000</v>
+      </c>
+      <c r="C115">
+        <v>46</v>
+      </c>
+      <c r="D115">
+        <v>16812</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>10</v>
+      </c>
+      <c r="B116">
+        <v>35000</v>
+      </c>
+      <c r="C116">
+        <v>46</v>
+      </c>
+      <c r="D116">
+        <v>16598</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <f>AVERAGE(C107:C116)</f>
+        <v>45.8</v>
+      </c>
+      <c r="D117">
+        <f>AVERAGE(D107:D116)</f>
+        <v>16897.599999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ref="C118:D118" si="5">STDEV(C107:C116)</f>
+        <v>0.63245553203367577</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="5"/>
+        <v>396.57679654205134</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <f>CONFIDENCE(0.05,C118,10)</f>
+        <v>0.39199279690801064</v>
+      </c>
+      <c r="D119">
+        <f>CONFIDENCE(0.05,D118,10)</f>
+        <v>245.79632842402017</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>40000</v>
+      </c>
+      <c r="C122">
+        <v>50</v>
+      </c>
+      <c r="D122">
+        <v>23224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>40000</v>
+      </c>
+      <c r="C123">
+        <v>52</v>
+      </c>
+      <c r="D123">
+        <v>21612</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>40000</v>
+      </c>
+      <c r="C124">
+        <v>51</v>
+      </c>
+      <c r="D124">
+        <v>22563</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125">
+        <v>40000</v>
+      </c>
+      <c r="C125">
+        <v>50</v>
+      </c>
+      <c r="D125">
+        <v>21669</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>40000</v>
+      </c>
+      <c r="C126">
+        <v>50</v>
+      </c>
+      <c r="D126">
+        <v>21659</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>40000</v>
+      </c>
+      <c r="C127">
+        <v>52</v>
+      </c>
+      <c r="D127">
+        <v>22029</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>7</v>
+      </c>
+      <c r="B128">
+        <v>40000</v>
+      </c>
+      <c r="C128">
+        <v>52</v>
+      </c>
+      <c r="D128">
+        <v>21616</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129">
+        <v>40000</v>
+      </c>
+      <c r="C129">
+        <v>51</v>
+      </c>
+      <c r="D129">
+        <v>22225</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>9</v>
+      </c>
+      <c r="B130">
+        <v>40000</v>
+      </c>
+      <c r="C130">
+        <v>51</v>
+      </c>
+      <c r="D130">
+        <v>21853</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>10</v>
+      </c>
+      <c r="B131">
+        <v>40000</v>
+      </c>
+      <c r="C131">
+        <v>50</v>
+      </c>
+      <c r="D131">
+        <v>51782</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <f>AVERAGE(C122:C131)</f>
+        <v>50.9</v>
+      </c>
+      <c r="D132">
+        <f>AVERAGE(D122:D131)</f>
+        <v>25023.200000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ref="C133:D133" si="6">STDEV(C122:C131)</f>
+        <v>0.87559503577091313</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="6"/>
+        <v>9416.1929296764592</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <f>CONFIDENCE(0.05,C133,10)</f>
+        <v>0.54268945348134678</v>
+      </c>
+      <c r="D134">
+        <f>CONFIDENCE(0.05,D133,10)</f>
+        <v>5836.1096010348037</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>45000</v>
+      </c>
+      <c r="C137">
+        <v>58</v>
+      </c>
+      <c r="D137">
+        <v>31014</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <v>45000</v>
+      </c>
+      <c r="C138">
+        <v>56</v>
+      </c>
+      <c r="D138">
+        <v>27762</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>45000</v>
+      </c>
+      <c r="C139">
+        <v>57</v>
+      </c>
+      <c r="D139">
+        <v>29090</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>4</v>
+      </c>
+      <c r="B140">
+        <v>45000</v>
+      </c>
+      <c r="C140">
+        <v>56</v>
+      </c>
+      <c r="D140">
+        <v>27715</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>5</v>
+      </c>
+      <c r="B141">
+        <v>45000</v>
+      </c>
+      <c r="C141">
+        <v>57</v>
+      </c>
+      <c r="D141">
+        <v>28460</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>6</v>
+      </c>
+      <c r="B142">
+        <v>45000</v>
+      </c>
+      <c r="C142">
+        <v>65</v>
+      </c>
+      <c r="D142">
+        <v>27988</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>7</v>
+      </c>
+      <c r="B143">
+        <v>45000</v>
+      </c>
+      <c r="C143">
+        <v>58</v>
+      </c>
+      <c r="D143">
+        <v>29372</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>8</v>
+      </c>
+      <c r="B144">
+        <v>45000</v>
+      </c>
+      <c r="C144">
+        <v>58</v>
+      </c>
+      <c r="D144">
+        <v>27483</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>9</v>
+      </c>
+      <c r="B145">
+        <v>45000</v>
+      </c>
+      <c r="C145">
+        <v>56</v>
+      </c>
+      <c r="D145">
+        <v>27383</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>10</v>
+      </c>
+      <c r="B146">
+        <v>45000</v>
+      </c>
+      <c r="C146">
+        <v>56</v>
+      </c>
+      <c r="D146">
+        <v>27257</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <f>AVERAGE(C137:C146)</f>
+        <v>57.7</v>
+      </c>
+      <c r="D147">
+        <f>AVERAGE(D137:D146)</f>
+        <v>28352.400000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ref="C148:D148" si="7">STDEV(C137:C146)</f>
+        <v>2.7100635498903793</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="7"/>
+        <v>1176.740432059868</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149">
+        <f>CONFIDENCE(0.05,C148,10)</f>
+        <v>1.679683925451722</v>
+      </c>
+      <c r="D149">
+        <f>CONFIDENCE(0.05,D148,10)</f>
+        <v>729.33787410262948</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -898,11 +2588,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1025" width="8.5703125"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -910,10 +2604,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1025" width="8.5703125"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/testes.xlsx
+++ b/testes.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Dados" sheetId="1" r:id="rId1"/>
+    <sheet name="Resultados" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
   <si>
     <t>Grupo</t>
   </si>
@@ -42,6 +41,27 @@
   </si>
   <si>
     <t>Intervalo de confiança 95%</t>
+  </si>
+  <si>
+    <t>Desvio Padrão</t>
+  </si>
+  <si>
+    <t>Intervalo de Confiança</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Força Bruta</t>
+  </si>
+  <si>
+    <t>Divisão e Conquista</t>
+  </si>
+  <si>
+    <t>Tempo Médio de Execução</t>
   </si>
 </sst>
 </file>
@@ -85,9 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,6 +139,38 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Tempo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de Execução com </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t>Força Bruta (95% IC)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -128,89 +183,248 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$A$12</c:f>
+              <c:f>Resultados!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Média</c:v>
+                  <c:v>Tempo Médio de Execução</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.33903318553783435"/>
+                  <c:y val="-0.2930278881302979"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>2E-05x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> - 0.0369x + 127.84</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+R² = </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>0.9941</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Resultados!$G$7:$P$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.4307138119413296</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.72412466784494</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>95.039950486567818</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17.363683378543879</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>75.278300303171321</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>76.485634182700863</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>50.006864630955619</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>283.69395015407969</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6735.938640196201</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>841.78939460893048</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Resultados!$G$7:$P$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.4307138119413296</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.72412466784494</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>95.039950486567818</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17.363683378543879</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>75.278300303171321</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>76.485634182700863</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>50.006864630955619</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>283.69395015407969</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6735.938640196201</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>841.78939460893048</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Resultados!$G$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$B$12:$D$12</c:f>
+              <c:f>Resultados!$G$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1</c:v>
+                  <c:v>333.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan1!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Desvio padrao</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan1!$B$13:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="1">
-                  <c:v>1.4491376746189437</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan1!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Intervalo de confiança 95%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan1!$B$14:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="1">
-                  <c:v>0.89816833185420519</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2395900646091229</c:v>
+                  <c:v>1533.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3015.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5548.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8500.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12295.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16897.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25023.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28352.400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -225,20 +439,40 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="193784064"/>
-        <c:axId val="193901696"/>
+        <c:axId val="184518144"/>
+        <c:axId val="184520064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193784064"/>
+        <c:axId val="184518144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho da Instância</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193901696"/>
+        <c:crossAx val="184520064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -246,20 +480,1272 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193901696"/>
+        <c:axId val="184520064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo de Execução (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193784064"/>
+        <c:crossAx val="184518144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Tempo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de Execução com</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t>Divisão e Conquista</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo Médio de Execução</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.37114078553139135"/>
+                  <c:y val="-0.30343744796250921"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>0.0013x - 0.5518</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+R² = 0.9982</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Resultados!$G$15:$P$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.0366506432409315</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3255031346719126</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.50583371918048459</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.30162095503976072</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0003635367755417</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.90799931426423419</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.50583371918048459</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.45243143255964097</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.626362955672354</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.9386626760334582</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Resultados!$G$15:$P$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.0366506432409315</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3255031346719126</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.50583371918048459</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.30162095503976072</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0003635367755417</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.90799931426423419</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.50583371918048459</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.45243143255964097</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.626362955672354</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.9386626760334582</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Resultados!$G$12:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$G$13:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="174142592"/>
+        <c:axId val="174144512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="174142592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho da Instância</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174144512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="174144512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo de Execução (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174142592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Comparação</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> entre as linhas de tendências de Força Bruta e Divisão e Conquista</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$F$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Força Bruta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150">
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Resultados!$G$39:$P$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$G$40:$P$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>110.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>443.34000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1758.8400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4074.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7389.8400000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11705.340000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17020.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23336.340000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30651.840000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38967.339999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultados!$F$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Divisão e Conquista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150">
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Resultados!$G$39:$P$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resultados!$G$41:$P$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.74820000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9481999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.4482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.9482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.4482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.9482</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.4482</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.9482</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.4482</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.9482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="174190976"/>
+        <c:axId val="174192896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="174190976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho da Instância</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174192896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="174192896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de Execução (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174190976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Curva de Tendência do Tempo de Execução com Força Bruta</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.43888013998250219"/>
+                  <c:y val="-0.10449256342957131"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Resultados!$G$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Resultados!$G$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>333.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1533.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3015.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5548.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8500.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12295.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16897.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25023.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28352.400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="43639552"/>
+        <c:axId val="43637760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="43639552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho da Instância</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43637760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43637760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo de Execução (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43639552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Curva de Tendência do</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Tempo de Execução com Divisão e Conquista</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.40180358705161856"/>
+                  <c:y val="-0.13599664625255176"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Resultados!$G$12:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Resultados!$G$13:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="55161216"/>
+        <c:axId val="43985536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="55161216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho da Instância</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43985536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43985536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo de Execução (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55161216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -283,20 +1769,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>717175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -306,6 +1792,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>227481</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>61633</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>141194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -603,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D14"/>
+    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,12 +2411,12 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <f>CONFIDENCE(0.05,C13,10)</f>
-        <v>0.89816833185420519</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,C13,10)</f>
+        <v>1.0366506432409315</v>
       </c>
       <c r="D14">
-        <f>CONFIDENCE(0.05,D13,10)</f>
-        <v>1.2395900646091229</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,D13,10)</f>
+        <v>1.4307138119413296</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1001,12 +2607,12 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <f>CONFIDENCE(0.05,C28,10)</f>
-        <v>1.148434091174434</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,C28,10)</f>
+        <v>1.3255031346719126</v>
       </c>
       <c r="D29">
-        <f>CONFIDENCE(0.05,D28,10)</f>
-        <v>4.0930463894029989</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,D28,10)</f>
+        <v>4.72412466784494</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1197,12 +2803,12 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <f>CONFIDENCE(0.05,C43,10)</f>
-        <v>0.43826127028829065</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,C43,10)</f>
+        <v>0.50583371918048459</v>
       </c>
       <c r="D44">
-        <f>CONFIDENCE(0.05,D43,10)</f>
-        <v>82.343916289055571</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,D43,10)</f>
+        <v>95.039950486567818</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1393,12 +2999,12 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <f>CONFIDENCE(0.05,C58,10)</f>
-        <v>0.26132853127200717</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,C58,10)</f>
+        <v>0.30162095503976072</v>
       </c>
       <c r="D59">
-        <f>CONFIDENCE(0.05,D58,10)</f>
-        <v>15.044133369940658</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,D58,10)</f>
+        <v>17.363683378543879</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1589,12 +3195,12 @@
         <v>6</v>
       </c>
       <c r="C74">
-        <f>CONFIDENCE(0.05,C73,10)</f>
-        <v>0.86672868524390512</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,C73,10)</f>
+        <v>1.0003635367755417</v>
       </c>
       <c r="D74">
-        <f>CONFIDENCE(0.05,D73,10)</f>
-        <v>65.222151598477538</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,D73,10)</f>
+        <v>75.278300303171321</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1785,12 +3391,12 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <f>CONFIDENCE(0.05,C88,10)</f>
-        <v>0.7867030563621884</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,C88,10)</f>
+        <v>0.90799931426423419</v>
       </c>
       <c r="D89">
-        <f>CONFIDENCE(0.05,D88,10)</f>
-        <v>66.268202226660179</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,D88,10)</f>
+        <v>76.485634182700863</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -1981,12 +3587,12 @@
         <v>6</v>
       </c>
       <c r="C104">
-        <f>CONFIDENCE(0.05,C103,10)</f>
-        <v>0.43826127028829065</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,C103,10)</f>
+        <v>0.50583371918048459</v>
       </c>
       <c r="D104">
-        <f>CONFIDENCE(0.05,D103,10)</f>
-        <v>43.326633210225786</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,D103,10)</f>
+        <v>50.006864630955619</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2177,12 +3783,12 @@
         <v>6</v>
       </c>
       <c r="C119">
-        <f>CONFIDENCE(0.05,C118,10)</f>
-        <v>0.39199279690801064</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,C118,10)</f>
+        <v>0.45243143255964097</v>
       </c>
       <c r="D119">
-        <f>CONFIDENCE(0.05,D118,10)</f>
-        <v>245.79632842402017</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,D118,10)</f>
+        <v>283.69395015407969</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2373,12 +3979,12 @@
         <v>6</v>
       </c>
       <c r="C134">
-        <f>CONFIDENCE(0.05,C133,10)</f>
-        <v>0.54268945348134678</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,C133,10)</f>
+        <v>0.626362955672354</v>
       </c>
       <c r="D134">
-        <f>CONFIDENCE(0.05,D133,10)</f>
-        <v>5836.1096010348037</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,D133,10)</f>
+        <v>6735.938640196201</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -2569,49 +4175,707 @@
         <v>6</v>
       </c>
       <c r="C149">
-        <f>CONFIDENCE(0.05,C148,10)</f>
-        <v>1.679683925451722</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,C148,10)</f>
+        <v>1.9386626760334582</v>
       </c>
       <c r="D149">
-        <f>CONFIDENCE(0.05,D148,10)</f>
-        <v>729.33787410262948</v>
+        <f>_xlfn.CONFIDENCE.T(0.05,D148,10)</f>
+        <v>841.78939460893048</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F3:P41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD44" sqref="AD44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="5" width="8.5703125"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="1025" width="8.5703125"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>5000</v>
+      </c>
+      <c r="I4">
+        <v>10000</v>
+      </c>
+      <c r="J4">
+        <v>15000</v>
+      </c>
+      <c r="K4">
+        <v>20000</v>
+      </c>
+      <c r="L4">
+        <v>25000</v>
+      </c>
+      <c r="M4">
+        <v>30000</v>
+      </c>
+      <c r="N4">
+        <v>35000</v>
+      </c>
+      <c r="O4">
+        <v>40000</v>
+      </c>
+      <c r="P4">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="5" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <f>Dados!D12</f>
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <f>Dados!D27</f>
+        <v>333.5</v>
+      </c>
+      <c r="I5">
+        <f>Dados!D42</f>
+        <v>1533.3</v>
+      </c>
+      <c r="J5">
+        <f>Dados!D57</f>
+        <v>3015.5</v>
+      </c>
+      <c r="K5">
+        <f>Dados!D72</f>
+        <v>5548.8</v>
+      </c>
+      <c r="L5">
+        <f>Dados!D87</f>
+        <v>8500.7000000000007</v>
+      </c>
+      <c r="M5">
+        <f>Dados!D102</f>
+        <v>12295.7</v>
+      </c>
+      <c r="N5">
+        <f>Dados!D117</f>
+        <v>16897.599999999999</v>
+      </c>
+      <c r="O5">
+        <f>Dados!D132</f>
+        <v>25023.200000000001</v>
+      </c>
+      <c r="P5">
+        <f>Dados!D147</f>
+        <v>28352.400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <f>Dados!D13</f>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>Dados!D28</f>
+        <v>6.6038709187196503</v>
+      </c>
+      <c r="I6">
+        <f>Dados!D43</f>
+        <v>132.85668970736853</v>
+      </c>
+      <c r="J6">
+        <f>Dados!D58</f>
+        <v>24.272755646334566</v>
+      </c>
+      <c r="K6">
+        <f>Dados!D73</f>
+        <v>105.23180761221073</v>
+      </c>
+      <c r="L6">
+        <f>Dados!D88</f>
+        <v>106.91954399869506</v>
+      </c>
+      <c r="M6">
+        <f>Dados!D103</f>
+        <v>69.90477650187988</v>
+      </c>
+      <c r="N6">
+        <f>Dados!D118</f>
+        <v>396.57679654205134</v>
+      </c>
+      <c r="O6">
+        <f>Dados!D133</f>
+        <v>9416.1929296764592</v>
+      </c>
+      <c r="P6">
+        <f>Dados!D148</f>
+        <v>1176.740432059868</v>
+      </c>
+    </row>
+    <row r="7" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f>Dados!D14</f>
+        <v>1.4307138119413296</v>
+      </c>
+      <c r="H7">
+        <f>Dados!D29</f>
+        <v>4.72412466784494</v>
+      </c>
+      <c r="I7">
+        <f>Dados!D44</f>
+        <v>95.039950486567818</v>
+      </c>
+      <c r="J7">
+        <f>Dados!D59</f>
+        <v>17.363683378543879</v>
+      </c>
+      <c r="K7">
+        <f>Dados!D74</f>
+        <v>75.278300303171321</v>
+      </c>
+      <c r="L7">
+        <f>Dados!D89</f>
+        <v>76.485634182700863</v>
+      </c>
+      <c r="M7">
+        <f>Dados!D104</f>
+        <v>50.006864630955619</v>
+      </c>
+      <c r="N7">
+        <f>Dados!D119</f>
+        <v>283.69395015407969</v>
+      </c>
+      <c r="O7">
+        <f>Dados!D134</f>
+        <v>6735.938640196201</v>
+      </c>
+      <c r="P7">
+        <f>Dados!D149</f>
+        <v>841.78939460893048</v>
+      </c>
+    </row>
+    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <f>G5+G7</f>
+        <v>17.430713811941331</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:P8" si="0">H5+H7</f>
+        <v>338.22412466784493</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1628.3399504865679</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>3032.863683378544</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>5624.0783003031711</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>8577.1856341827024</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>12345.706864630956</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>17181.293950154079</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>31759.138640196201</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>29194.189394608933</v>
+      </c>
+    </row>
+    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <f>G5-G7</f>
+        <v>14.569286188058671</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:P9" si="1">H5-H7</f>
+        <v>328.77587533215507</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1438.260049513432</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>2998.136316621456</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>5473.5216996968293</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>8424.214365817299</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>12245.693135369045</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>16613.906049845918</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>18287.261359803801</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>27510.61060539107</v>
+      </c>
+    </row>
+    <row r="11" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
+        <v>5000</v>
+      </c>
+      <c r="I12">
+        <v>10000</v>
+      </c>
+      <c r="J12">
+        <v>15000</v>
+      </c>
+      <c r="K12">
+        <v>20000</v>
+      </c>
+      <c r="L12">
+        <v>25000</v>
+      </c>
+      <c r="M12">
+        <v>30000</v>
+      </c>
+      <c r="N12">
+        <v>35000</v>
+      </c>
+      <c r="O12">
+        <v>40000</v>
+      </c>
+      <c r="P12">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <f>Dados!C12</f>
+        <v>2.1</v>
+      </c>
+      <c r="H13">
+        <f>Dados!C27</f>
+        <v>5.9</v>
+      </c>
+      <c r="I13">
+        <f>Dados!C42</f>
+        <v>11.5</v>
+      </c>
+      <c r="J13">
+        <f>Dados!C57</f>
+        <v>18.2</v>
+      </c>
+      <c r="K13">
+        <f>Dados!C72</f>
+        <v>25.2</v>
+      </c>
+      <c r="L13">
+        <f>Dados!C87</f>
+        <v>30.5</v>
+      </c>
+      <c r="M13">
+        <f>Dados!C102</f>
+        <v>38.5</v>
+      </c>
+      <c r="N13">
+        <f>Dados!C117</f>
+        <v>45.8</v>
+      </c>
+      <c r="O13">
+        <f>Dados!C132</f>
+        <v>50.9</v>
+      </c>
+      <c r="P13">
+        <f>Dados!C147</f>
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="14" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <f>Dados!C13</f>
+        <v>1.4491376746189437</v>
+      </c>
+      <c r="H14">
+        <f>Dados!C28</f>
+        <v>1.8529256146249722</v>
+      </c>
+      <c r="I14">
+        <f>Dados!C43</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="J14">
+        <f>Dados!C58</f>
+        <v>0.4216370213557839</v>
+      </c>
+      <c r="K14">
+        <f>Dados!C73</f>
+        <v>1.398411797560202</v>
+      </c>
+      <c r="L14">
+        <f>Dados!C88</f>
+        <v>1.2692955176439846</v>
+      </c>
+      <c r="M14">
+        <f>Dados!C103</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="N14">
+        <f>Dados!C118</f>
+        <v>0.63245553203367577</v>
+      </c>
+      <c r="O14">
+        <f>Dados!C133</f>
+        <v>0.87559503577091313</v>
+      </c>
+      <c r="P14">
+        <f>Dados!C148</f>
+        <v>2.7100635498903793</v>
+      </c>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <f>Dados!C14</f>
+        <v>1.0366506432409315</v>
+      </c>
+      <c r="H15">
+        <f>Dados!C29</f>
+        <v>1.3255031346719126</v>
+      </c>
+      <c r="I15">
+        <f>Dados!C44</f>
+        <v>0.50583371918048459</v>
+      </c>
+      <c r="J15">
+        <f>Dados!C59</f>
+        <v>0.30162095503976072</v>
+      </c>
+      <c r="K15">
+        <f>Dados!C74</f>
+        <v>1.0003635367755417</v>
+      </c>
+      <c r="L15">
+        <f>Dados!C89</f>
+        <v>0.90799931426423419</v>
+      </c>
+      <c r="M15">
+        <f>Dados!C104</f>
+        <v>0.50583371918048459</v>
+      </c>
+      <c r="N15">
+        <f>Dados!C119</f>
+        <v>0.45243143255964097</v>
+      </c>
+      <c r="O15">
+        <f>Dados!C134</f>
+        <v>0.626362955672354</v>
+      </c>
+      <c r="P15">
+        <f>Dados!C149</f>
+        <v>1.9386626760334582</v>
+      </c>
+    </row>
+    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <f>G13+G15</f>
+        <v>3.1366506432409316</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:P16" si="2">H13+H15</f>
+        <v>7.2255031346719125</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>12.005833719180485</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>18.501620955039758</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>26.200363536775541</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>31.407999314264234</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>39.005833719180487</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>46.252431432559639</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>51.526362955672354</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>59.638662676033462</v>
+      </c>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <f>G13-G15</f>
+        <v>1.0633493567590686</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:P17" si="3">H13-H15</f>
+        <v>4.5744968653280882</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>10.994166280819515</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>17.89837904496024</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>24.199636463224458</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>29.592000685735766</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>37.994166280819513</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>45.347568567440355</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>50.273637044327643</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>55.761337323966544</v>
+      </c>
+    </row>
+    <row r="39" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>1000</v>
+      </c>
+      <c r="H39">
+        <v>5000</v>
+      </c>
+      <c r="I39">
+        <v>10000</v>
+      </c>
+      <c r="J39">
+        <v>15000</v>
+      </c>
+      <c r="K39">
+        <v>20000</v>
+      </c>
+      <c r="L39">
+        <v>25000</v>
+      </c>
+      <c r="M39">
+        <v>30000</v>
+      </c>
+      <c r="N39">
+        <v>35000</v>
+      </c>
+      <c r="O39">
+        <v>40000</v>
+      </c>
+      <c r="P39">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <f>0.00002*G39^2-0.0369*G39+127.84</f>
+        <v>110.94</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40:R40" si="4">0.00002*H39^2-0.0369*H39+127.84</f>
+        <v>443.34000000000003</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>1758.8400000000001</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>4074.34</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>7389.8400000000011</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>11705.340000000002</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>17020.84</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>23336.340000000004</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="4"/>
+        <v>30651.840000000004</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="4"/>
+        <v>38967.339999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <f>0.0013*G39-0.5518</f>
+        <v>0.74820000000000009</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41:R41" si="5">0.0013*H39-0.5518</f>
+        <v>5.9481999999999999</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="5"/>
+        <v>12.4482</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>18.9482</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>25.4482</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="5"/>
+        <v>31.9482</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>38.4482</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="5"/>
+        <v>44.9482</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="5"/>
+        <v>51.4482</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="5"/>
+        <v>57.9482</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="G11:P11"/>
+  </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.5703125"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>